--- a/biology/Botanique/Brachiaria/Brachiaria.xlsx
+++ b/biology/Botanique/Brachiaria/Brachiaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachiaria est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales de l'Ancien Monde, principalement d'Afrique, qui comprend une centaine d'espèces. Certains auteurs considèrent que le genre Brachiaria doit être inclus dans le genre Urochloa[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachiaria est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales de l'Ancien Monde, principalement d'Afrique, qui comprend une centaine d'espèces. Certains auteurs considèrent que le genre Brachiaria doit être inclus dans le genre Urochloa.
 Ce sont des plantes herbacées, annuelles pour la plupart, vivaces chez certaines espèces, cespiteuses, dont les tiges (chaumes) peuvent atteindre de 25 cm à 1 m de haut. Plusieurs espèces ont été introduites en Amérique.
 Certaines espèces sont cultivées comme plantes fourragères, notamment au Brésil où elles ont connu une grande expansion. Beaucoup sont des mauvaises herbes des cultures. Les graines de certaines espèces, notamment Brachiaria deflexa sont collectées dans la nature à des fins alimentaires dans la région du Sahel, souvent indistinctement avec d'autres graines faisant partie du complexe du « kreb ».
 </t>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (7 avr. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (7 avr. 2012) :
 Brachiaria adspersa (Trin.) Parodi (1969)
 Brachiaria advena Vickery (1951)
 Brachiaria albicoma (Swallen &amp; García-Barr.) Zuloaga &amp; Soderstr. (1985)
